--- a/Code/Results/Cases/Case_9_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009401474793715</v>
+        <v>1.008994925951076</v>
       </c>
       <c r="D2">
-        <v>1.027437326165113</v>
+        <v>1.026542166176247</v>
       </c>
       <c r="E2">
-        <v>1.023799117023028</v>
+        <v>1.023509466555556</v>
       </c>
       <c r="F2">
-        <v>1.033506577323092</v>
+        <v>1.033258666358491</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047042748720859</v>
+        <v>1.046730461756033</v>
       </c>
       <c r="J2">
-        <v>1.03130458000654</v>
+        <v>1.030909888925</v>
       </c>
       <c r="K2">
-        <v>1.038527204415081</v>
+        <v>1.037643707723009</v>
       </c>
       <c r="L2">
-        <v>1.034936557731394</v>
+        <v>1.034650712091796</v>
       </c>
       <c r="M2">
-        <v>1.044518043789346</v>
+        <v>1.04427331315369</v>
       </c>
       <c r="N2">
-        <v>1.013741454164361</v>
+        <v>1.014991973727761</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043805428584511</v>
+        <v>1.043611741552276</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038312342734052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037696411365925</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021943744704388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013903466923508</v>
+        <v>1.013215323100209</v>
       </c>
       <c r="D3">
-        <v>1.030468692893675</v>
+        <v>1.029260465799753</v>
       </c>
       <c r="E3">
-        <v>1.027331540833228</v>
+        <v>1.026809920768703</v>
       </c>
       <c r="F3">
-        <v>1.036780389069447</v>
+        <v>1.036349905582594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047953737092708</v>
+        <v>1.047501982157352</v>
       </c>
       <c r="J3">
-        <v>1.034022154033921</v>
+        <v>1.033352095396655</v>
       </c>
       <c r="K3">
-        <v>1.040726016565537</v>
+        <v>1.039532157062922</v>
       </c>
       <c r="L3">
-        <v>1.037626256711206</v>
+        <v>1.037110881396933</v>
       </c>
       <c r="M3">
-        <v>1.046963331011763</v>
+        <v>1.046537885040272</v>
       </c>
       <c r="N3">
-        <v>1.014709484637716</v>
+        <v>1.015679192505142</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045740698086756</v>
+        <v>1.045403988473381</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039864432063967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039028766641799</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022359176403069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016760139226648</v>
+        <v>1.015895874779327</v>
       </c>
       <c r="D4">
-        <v>1.032395081425997</v>
+        <v>1.030989928165752</v>
       </c>
       <c r="E4">
-        <v>1.029579068112418</v>
+        <v>1.028912260883303</v>
       </c>
       <c r="F4">
-        <v>1.038865109265161</v>
+        <v>1.038320416888795</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048521769448647</v>
+        <v>1.047982274945474</v>
       </c>
       <c r="J4">
-        <v>1.035744622912028</v>
+        <v>1.034901521197975</v>
       </c>
       <c r="K4">
-        <v>1.042117636773998</v>
+        <v>1.040728183534303</v>
       </c>
       <c r="L4">
-        <v>1.039333140356914</v>
+        <v>1.038673827164828</v>
       </c>
       <c r="M4">
-        <v>1.048516047198911</v>
+        <v>1.047977341803494</v>
       </c>
       <c r="N4">
-        <v>1.015322421864264</v>
+        <v>1.016114911857296</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046969558965985</v>
+        <v>1.046543213423476</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040849322483882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039875435876012</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022619794041779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017952934084195</v>
+        <v>1.017015510115875</v>
       </c>
       <c r="D5">
-        <v>1.033202536636127</v>
+        <v>1.031715446690702</v>
       </c>
       <c r="E5">
-        <v>1.030519351743646</v>
+        <v>1.029792190249865</v>
       </c>
       <c r="F5">
-        <v>1.039737072617654</v>
+        <v>1.039144921943497</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048758414138476</v>
+        <v>1.048182353937905</v>
       </c>
       <c r="J5">
-        <v>1.036465161232483</v>
+        <v>1.035549999487909</v>
       </c>
       <c r="K5">
-        <v>1.042701112937882</v>
+        <v>1.041230195418821</v>
       </c>
       <c r="L5">
-        <v>1.040047149842186</v>
+        <v>1.039327939857608</v>
       </c>
       <c r="M5">
-        <v>1.049165256036125</v>
+        <v>1.048579439582805</v>
       </c>
       <c r="N5">
-        <v>1.015579428700185</v>
+        <v>1.016297756316254</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047483359495848</v>
+        <v>1.047019729340743</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041269047405109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040238270701867</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022729225264646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018158412585244</v>
+        <v>1.017208169682475</v>
       </c>
       <c r="D6">
-        <v>1.033344655612246</v>
+        <v>1.031843338890301</v>
       </c>
       <c r="E6">
-        <v>1.030681923783417</v>
+        <v>1.029944154127819</v>
       </c>
       <c r="F6">
-        <v>1.03988710930176</v>
+        <v>1.039286624115535</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048801367272314</v>
+        <v>1.048218886524991</v>
       </c>
       <c r="J6">
-        <v>1.036591474325061</v>
+        <v>1.035663680886436</v>
       </c>
       <c r="K6">
-        <v>1.04280560086395</v>
+        <v>1.041320536280717</v>
       </c>
       <c r="L6">
-        <v>1.040171733643885</v>
+        <v>1.039441993981255</v>
       </c>
       <c r="M6">
-        <v>1.049277901560925</v>
+        <v>1.048683810144793</v>
       </c>
       <c r="N6">
-        <v>1.015625401813709</v>
+        <v>1.016330480406886</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047572510017833</v>
+        <v>1.047102330899731</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041351657897917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040311748901487</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022749669245335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016792209204418</v>
+        <v>1.015936215721854</v>
       </c>
       <c r="D7">
-        <v>1.032424793511033</v>
+        <v>1.031025297146215</v>
       </c>
       <c r="E7">
-        <v>1.029605737757188</v>
+        <v>1.028946050281723</v>
       </c>
       <c r="F7">
-        <v>1.038887820262165</v>
+        <v>1.038348704426997</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048534431259709</v>
+        <v>1.047997790633388</v>
       </c>
       <c r="J7">
-        <v>1.035769971267436</v>
+        <v>1.034934928345088</v>
       </c>
       <c r="K7">
-        <v>1.042144141900394</v>
+        <v>1.040760275925577</v>
       </c>
       <c r="L7">
-        <v>1.039356624453825</v>
+        <v>1.038704347989975</v>
       </c>
       <c r="M7">
-        <v>1.048535657003994</v>
+        <v>1.048002464526639</v>
       </c>
       <c r="N7">
-        <v>1.015334001946801</v>
+        <v>1.016152728917611</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046985078674073</v>
+        <v>1.046563096209266</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040888145491492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039920212680832</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022629879884915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010955309515277</v>
+        <v>1.0104839545198</v>
       </c>
       <c r="D8">
-        <v>1.028492928948877</v>
+        <v>1.027514553520783</v>
       </c>
       <c r="E8">
-        <v>1.025018907090201</v>
+        <v>1.024677139654126</v>
       </c>
       <c r="F8">
-        <v>1.034634127991024</v>
+        <v>1.03434510287637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047367111008854</v>
+        <v>1.047019224868474</v>
       </c>
       <c r="J8">
-        <v>1.032250425036807</v>
+        <v>1.031792349712868</v>
       </c>
       <c r="K8">
-        <v>1.039300296134778</v>
+        <v>1.038334287233436</v>
       </c>
       <c r="L8">
-        <v>1.035870318949226</v>
+        <v>1.035532904696748</v>
       </c>
       <c r="M8">
-        <v>1.045364536811747</v>
+        <v>1.045079108080043</v>
       </c>
       <c r="N8">
-        <v>1.014081864886585</v>
+        <v>1.015323777489737</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044475367694847</v>
+        <v>1.044249471193148</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03888188804981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038209880898813</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022101896328163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000189356486891</v>
+        <v>1.0004139870233</v>
       </c>
       <c r="D9">
-        <v>1.021253458364844</v>
+        <v>1.021039390532835</v>
       </c>
       <c r="E9">
-        <v>1.016606907454999</v>
+        <v>1.016838054266417</v>
       </c>
       <c r="F9">
-        <v>1.026850710894057</v>
+        <v>1.027013069219499</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045126081612313</v>
+        <v>1.045119179688781</v>
       </c>
       <c r="J9">
-        <v>1.02573542985991</v>
+        <v>1.025952134806582</v>
       </c>
       <c r="K9">
-        <v>1.034010873733832</v>
+        <v>1.033800097807939</v>
       </c>
       <c r="L9">
-        <v>1.029436174987742</v>
+        <v>1.02966372761551</v>
       </c>
       <c r="M9">
-        <v>1.039522673225987</v>
+        <v>1.03968257054616</v>
       </c>
       <c r="N9">
-        <v>1.011755026121562</v>
+        <v>1.013687184483609</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03985193497058</v>
+        <v>1.039978483081471</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03513872020269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035000451126927</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021088697915528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9927780482661377</v>
+        <v>0.9935433727079526</v>
       </c>
       <c r="D10">
-        <v>1.016304836307539</v>
+        <v>1.016661713391953</v>
       </c>
       <c r="E10">
-        <v>1.010892108598079</v>
+        <v>1.011568661645641</v>
       </c>
       <c r="F10">
-        <v>1.021619349425635</v>
+        <v>1.022133219260873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043560050167472</v>
+        <v>1.043809267111229</v>
       </c>
       <c r="J10">
-        <v>1.021281160118756</v>
+        <v>1.022015523461709</v>
       </c>
       <c r="K10">
-        <v>1.030385812697415</v>
+        <v>1.030736513788823</v>
       </c>
       <c r="L10">
-        <v>1.025067448608038</v>
+        <v>1.025732135315355</v>
       </c>
       <c r="M10">
-        <v>1.035608931230727</v>
+        <v>1.036114029046233</v>
       </c>
       <c r="N10">
-        <v>1.010174191677845</v>
+        <v>1.01270663223961</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036806004079349</v>
+        <v>1.037205732074891</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032592414961161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.0328528366345</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020403462406329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9903152577298875</v>
+        <v>0.9912972674393248</v>
       </c>
       <c r="D11">
-        <v>1.014770315855659</v>
+        <v>1.015340361131482</v>
       </c>
       <c r="E11">
-        <v>1.009313037434639</v>
+        <v>1.010164390121032</v>
       </c>
       <c r="F11">
-        <v>1.020549123365817</v>
+        <v>1.02120191035653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043232631004132</v>
+        <v>1.043571724000952</v>
       </c>
       <c r="J11">
-        <v>1.020096558149325</v>
+        <v>1.021036626057292</v>
       </c>
       <c r="K11">
-        <v>1.029418959573568</v>
+        <v>1.029978665420141</v>
       </c>
       <c r="L11">
-        <v>1.024061434963234</v>
+        <v>1.024897133310102</v>
       </c>
       <c r="M11">
-        <v>1.035093646337624</v>
+        <v>1.03573476779786</v>
       </c>
       <c r="N11">
-        <v>1.009857087282467</v>
+        <v>1.012739526713056</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036835250530033</v>
+        <v>1.037342369964612</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03194177546624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032353179609259</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020295909552227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9897011632397864</v>
+        <v>0.9907291246162171</v>
       </c>
       <c r="D12">
-        <v>1.01443743780416</v>
+        <v>1.015051263121651</v>
       </c>
       <c r="E12">
-        <v>1.009073786032748</v>
+        <v>1.009958319566168</v>
       </c>
       <c r="F12">
-        <v>1.020605123409315</v>
+        <v>1.021284916074684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043249407230569</v>
+        <v>1.043601671642771</v>
       </c>
       <c r="J12">
-        <v>1.019947875551376</v>
+        <v>1.020931093854152</v>
       </c>
       <c r="K12">
-        <v>1.029293169612518</v>
+        <v>1.029895676137248</v>
       </c>
       <c r="L12">
-        <v>1.024029187132879</v>
+        <v>1.024897188813986</v>
       </c>
       <c r="M12">
-        <v>1.035347929718928</v>
+        <v>1.036015384457758</v>
       </c>
       <c r="N12">
-        <v>1.009887178949576</v>
+        <v>1.012870359306549</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037363254938331</v>
+        <v>1.037891024530133</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031852837215358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032294504352199</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020321944497061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9904912766313734</v>
+        <v>0.9914171676861278</v>
       </c>
       <c r="D13">
-        <v>1.015030332002621</v>
+        <v>1.015544803591302</v>
       </c>
       <c r="E13">
-        <v>1.0098698101945</v>
+        <v>1.01066420824192</v>
       </c>
       <c r="F13">
-        <v>1.021557630712423</v>
+        <v>1.022167073415109</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043548600733869</v>
+        <v>1.043848249889288</v>
       </c>
       <c r="J13">
-        <v>1.020609471354433</v>
+        <v>1.021495295332298</v>
       </c>
       <c r="K13">
-        <v>1.029832043886618</v>
+        <v>1.030337073663661</v>
       </c>
       <c r="L13">
-        <v>1.024766924609683</v>
+        <v>1.025546553875606</v>
       </c>
       <c r="M13">
-        <v>1.036240467393266</v>
+        <v>1.036838911654948</v>
       </c>
       <c r="N13">
-        <v>1.010197724461355</v>
+        <v>1.013054072564521</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038345907224128</v>
+        <v>1.038818989833294</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032231339500793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032603838607072</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020457319375086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9916790396849859</v>
+        <v>0.9924677478920134</v>
       </c>
       <c r="D14">
-        <v>1.015865281371346</v>
+        <v>1.016246646243244</v>
       </c>
       <c r="E14">
-        <v>1.010893491689047</v>
+        <v>1.011570438665801</v>
       </c>
       <c r="F14">
-        <v>1.022627684072942</v>
+        <v>1.023145009441284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043885641768797</v>
+        <v>1.044119649219097</v>
       </c>
       <c r="J14">
-        <v>1.021438280016415</v>
+        <v>1.022193376833241</v>
       </c>
       <c r="K14">
-        <v>1.030510663001986</v>
+        <v>1.030885119403691</v>
       </c>
       <c r="L14">
-        <v>1.025629559119497</v>
+        <v>1.026294090263236</v>
       </c>
       <c r="M14">
-        <v>1.037151556202233</v>
+        <v>1.037659671904436</v>
       </c>
       <c r="N14">
-        <v>1.01054181989025</v>
+        <v>1.013208276940498</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039239519932699</v>
+        <v>1.039641141767016</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03271257870923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032992887087661</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020602403902565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9922822009840072</v>
+        <v>0.9930059166367431</v>
       </c>
       <c r="D15">
-        <v>1.016278848084945</v>
+        <v>1.016597088244656</v>
       </c>
       <c r="E15">
-        <v>1.01138001906096</v>
+        <v>1.012002249282604</v>
       </c>
       <c r="F15">
-        <v>1.023101337739768</v>
+        <v>1.023575632192623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044034264285756</v>
+        <v>1.044238341664004</v>
       </c>
       <c r="J15">
-        <v>1.021826555784455</v>
+        <v>1.022519710802259</v>
       </c>
       <c r="K15">
-        <v>1.030829903200229</v>
+        <v>1.03114242338276</v>
       </c>
       <c r="L15">
-        <v>1.026019715695834</v>
+        <v>1.026630625111471</v>
       </c>
       <c r="M15">
-        <v>1.037530777974951</v>
+        <v>1.037996696003256</v>
       </c>
       <c r="N15">
-        <v>1.010691022921456</v>
+        <v>1.013263955846491</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039576804924836</v>
+        <v>1.03994506346254</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03294418361208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033181266032664</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020664862930925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9952704705553268</v>
+        <v>0.995708256954318</v>
       </c>
       <c r="D16">
-        <v>1.018261413502126</v>
+        <v>1.018298332164155</v>
       </c>
       <c r="E16">
-        <v>1.013650784708956</v>
+        <v>1.014037015673371</v>
       </c>
       <c r="F16">
-        <v>1.025163746784526</v>
+        <v>1.025451836998798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044654884015728</v>
+        <v>1.044732043239385</v>
       </c>
       <c r="J16">
-        <v>1.02359560924371</v>
+        <v>1.024015858707565</v>
       </c>
       <c r="K16">
-        <v>1.032272865577689</v>
+        <v>1.032309150109983</v>
       </c>
       <c r="L16">
-        <v>1.027741900786366</v>
+        <v>1.028121422340309</v>
       </c>
       <c r="M16">
-        <v>1.039057665913038</v>
+        <v>1.039340894899022</v>
       </c>
       <c r="N16">
-        <v>1.011303916244349</v>
+        <v>1.013459566096962</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040744934834572</v>
+        <v>1.040968803625745</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03396758672433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034009652411914</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020916593256582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969425354144813</v>
+        <v>0.997245904173596</v>
       </c>
       <c r="D17">
-        <v>1.019347255155528</v>
+        <v>1.019247933117978</v>
       </c>
       <c r="E17">
-        <v>1.014858357892323</v>
+        <v>1.01513582464201</v>
       </c>
       <c r="F17">
-        <v>1.026181659872425</v>
+        <v>1.026383646086857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044952383795984</v>
+        <v>1.044971059382158</v>
       </c>
       <c r="J17">
-        <v>1.024518716637472</v>
+        <v>1.024810331183167</v>
       </c>
       <c r="K17">
-        <v>1.033024352670047</v>
+        <v>1.032926688183333</v>
       </c>
       <c r="L17">
-        <v>1.028610787045515</v>
+        <v>1.028883572493782</v>
       </c>
       <c r="M17">
-        <v>1.039745691361226</v>
+        <v>1.039944365440473</v>
       </c>
       <c r="N17">
-        <v>1.011593861939195</v>
+        <v>1.013559900731553</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041159747294711</v>
+        <v>1.041316798176347</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03450151013125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034449112981836</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021036001424497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9976171886995462</v>
+        <v>0.9978889953924365</v>
       </c>
       <c r="D18">
-        <v>1.019738903119388</v>
+        <v>1.019604372005637</v>
       </c>
       <c r="E18">
-        <v>1.015226634459613</v>
+        <v>1.015481836392159</v>
       </c>
       <c r="F18">
-        <v>1.026338732190222</v>
+        <v>1.026522476190243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044986407107918</v>
+        <v>1.044994558394096</v>
       </c>
       <c r="J18">
-        <v>1.024770519001786</v>
+        <v>1.025031991844237</v>
       </c>
       <c r="K18">
-        <v>1.03322539910533</v>
+        <v>1.033093076375106</v>
       </c>
       <c r="L18">
-        <v>1.028787612437505</v>
+        <v>1.02903857912996</v>
       </c>
       <c r="M18">
-        <v>1.039717801688269</v>
+        <v>1.039898580223511</v>
       </c>
       <c r="N18">
-        <v>1.011619320997338</v>
+        <v>1.01353671574115</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040900037033858</v>
+        <v>1.04104297135388</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03463199372852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034553958310795</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021040734227145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9974187642012498</v>
+        <v>0.997737722180146</v>
       </c>
       <c r="D19">
-        <v>1.01953770969511</v>
+        <v>1.019447825760046</v>
       </c>
       <c r="E19">
-        <v>1.014856878111619</v>
+        <v>1.015155635857762</v>
       </c>
       <c r="F19">
-        <v>1.025728912689289</v>
+        <v>1.025946117930322</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044802827273971</v>
+        <v>1.04483763618798</v>
       </c>
       <c r="J19">
-        <v>1.024444443621588</v>
+        <v>1.024751340106915</v>
       </c>
       <c r="K19">
-        <v>1.032964726364058</v>
+        <v>1.032876310695686</v>
       </c>
       <c r="L19">
-        <v>1.028360801955703</v>
+        <v>1.02865462377474</v>
       </c>
       <c r="M19">
-        <v>1.039055589724043</v>
+        <v>1.039269302969454</v>
       </c>
       <c r="N19">
-        <v>1.011426096295559</v>
+        <v>1.013393988673039</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040050887078938</v>
+        <v>1.04021991676296</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034454099723938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034407733359078</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020951799532213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9947478581041501</v>
+        <v>0.9953342223104334</v>
       </c>
       <c r="D20">
-        <v>1.017639264934788</v>
+        <v>1.017817600270728</v>
       </c>
       <c r="E20">
-        <v>1.012414748237873</v>
+        <v>1.012942073474808</v>
       </c>
       <c r="F20">
-        <v>1.023009706523771</v>
+        <v>1.023405894798686</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04399706499465</v>
+        <v>1.044163696016851</v>
       </c>
       <c r="J20">
-        <v>1.022482753183023</v>
+        <v>1.023046194271654</v>
       </c>
       <c r="K20">
-        <v>1.03137888178433</v>
+        <v>1.031554220597245</v>
       </c>
       <c r="L20">
-        <v>1.026242756282967</v>
+        <v>1.026761106529364</v>
       </c>
       <c r="M20">
-        <v>1.036659674853068</v>
+        <v>1.037049297547989</v>
       </c>
       <c r="N20">
-        <v>1.010609166133433</v>
+        <v>1.012898832974482</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037626988415433</v>
+        <v>1.037935334503028</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033336781014572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033477295919199</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02059033070689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.989009823996266</v>
+        <v>0.9901847201246021</v>
       </c>
       <c r="D21">
-        <v>1.013793969296775</v>
+        <v>1.014547157190302</v>
       </c>
       <c r="E21">
-        <v>1.007944141970657</v>
+        <v>1.008965422906107</v>
       </c>
       <c r="F21">
-        <v>1.018848517650348</v>
+        <v>1.019634520023659</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04272789275634</v>
+        <v>1.04316324785878</v>
       </c>
       <c r="J21">
-        <v>1.018974336406586</v>
+        <v>1.020098624450273</v>
       </c>
       <c r="K21">
-        <v>1.028518639780835</v>
+        <v>1.029258072652863</v>
       </c>
       <c r="L21">
-        <v>1.022776557110147</v>
+        <v>1.02377891028414</v>
       </c>
       <c r="M21">
-        <v>1.033481386540737</v>
+        <v>1.034253219678122</v>
       </c>
       <c r="N21">
-        <v>1.009343908415662</v>
+        <v>1.012496196520847</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035070641323502</v>
+        <v>1.035681499885145</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031317722825865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031857413984798</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020076245201508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9853512360929233</v>
+        <v>0.9869044138351081</v>
       </c>
       <c r="D22">
-        <v>1.011345660018731</v>
+        <v>1.012468495768865</v>
       </c>
       <c r="E22">
-        <v>1.005119951319752</v>
+        <v>1.006459252793833</v>
       </c>
       <c r="F22">
-        <v>1.016248033766397</v>
+        <v>1.01728549647048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041914385861917</v>
+        <v>1.042523173789635</v>
       </c>
       <c r="J22">
-        <v>1.016748119887216</v>
+        <v>1.018230343686313</v>
       </c>
       <c r="K22">
-        <v>1.026695658733829</v>
+        <v>1.02779693094021</v>
       </c>
       <c r="L22">
-        <v>1.020590658765544</v>
+        <v>1.021903827518003</v>
       </c>
       <c r="M22">
-        <v>1.031504342495561</v>
+        <v>1.032522129429166</v>
       </c>
       <c r="N22">
-        <v>1.008543009536518</v>
+        <v>1.012237722059654</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033505929879353</v>
+        <v>1.034311447452188</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030015219105301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03080946384646</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019748538372198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9872825640094954</v>
+        <v>0.9886174042385034</v>
       </c>
       <c r="D23">
-        <v>1.012630211295872</v>
+        <v>1.013542883276266</v>
       </c>
       <c r="E23">
-        <v>1.006608098955083</v>
+        <v>1.007763064135228</v>
       </c>
       <c r="F23">
-        <v>1.017620046285325</v>
+        <v>1.018511688741983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042338905425829</v>
+        <v>1.042848398182716</v>
       </c>
       <c r="J23">
-        <v>1.017917710453679</v>
+        <v>1.019193427057803</v>
       </c>
       <c r="K23">
-        <v>1.027648430553841</v>
+        <v>1.028544032069776</v>
       </c>
       <c r="L23">
-        <v>1.021739969700022</v>
+        <v>1.022873000325172</v>
       </c>
       <c r="M23">
-        <v>1.032545423949033</v>
+        <v>1.033420601228323</v>
       </c>
       <c r="N23">
-        <v>1.008960882090054</v>
+        <v>1.012323294893434</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034329883662659</v>
+        <v>1.035022533456642</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030679189008684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.0313270730176</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019912221327178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9947388225784927</v>
+        <v>0.995330335173928</v>
       </c>
       <c r="D24">
-        <v>1.017612777321383</v>
+        <v>1.017795561808656</v>
       </c>
       <c r="E24">
-        <v>1.012375084480093</v>
+        <v>1.012907393983584</v>
       </c>
       <c r="F24">
-        <v>1.022938967796658</v>
+        <v>1.023338964601871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043967581442075</v>
+        <v>1.044137397448671</v>
       </c>
       <c r="J24">
-        <v>1.022440912269262</v>
+        <v>1.023009332577605</v>
       </c>
       <c r="K24">
-        <v>1.03133749501095</v>
+        <v>1.031517211968412</v>
       </c>
       <c r="L24">
-        <v>1.026188309972774</v>
+        <v>1.026711570435365</v>
       </c>
       <c r="M24">
-        <v>1.036574878727766</v>
+        <v>1.036968254181412</v>
       </c>
       <c r="N24">
-        <v>1.01058088411052</v>
+        <v>1.012875196409403</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037518947373842</v>
+        <v>1.037830278897016</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033280019776201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033420965891718</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02057363450842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003056390929517</v>
+        <v>1.003077870024156</v>
       </c>
       <c r="D25">
-        <v>1.023190575695584</v>
+        <v>1.022759882738609</v>
       </c>
       <c r="E25">
-        <v>1.018843447554532</v>
+        <v>1.018906750168622</v>
       </c>
       <c r="F25">
-        <v>1.028915044611611</v>
+        <v>1.028945152361629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045741690863574</v>
+        <v>1.045637033568966</v>
       </c>
       <c r="J25">
-        <v>1.02748133132149</v>
+        <v>1.027502093695581</v>
       </c>
       <c r="K25">
-        <v>1.035439246728661</v>
+        <v>1.035014863890494</v>
       </c>
       <c r="L25">
-        <v>1.031156119821178</v>
+        <v>1.031218485474202</v>
       </c>
       <c r="M25">
-        <v>1.041080481765819</v>
+        <v>1.041110154851002</v>
       </c>
       <c r="N25">
-        <v>1.012383632286633</v>
+        <v>1.014093540490256</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041084836036295</v>
+        <v>1.041108320274279</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036177308905652</v>
+        <v>1.03589080143306</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021364625361476</v>
       </c>
     </row>
   </sheetData>
